--- a/data/trans_camb/P62-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P62-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P62-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P62-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,74</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,65; -3,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,55; -1,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,95; 5,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,65; 10,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,71; 12,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,23; 22,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 5,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 7,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,41; 14,96</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,09%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,78; -5,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,16; -1,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,11; 6,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,53; 28,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,39; 34,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,76; 60,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 9,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 14,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,49; 28,99</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,98</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,56; 1,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 9,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,51; 21,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 9,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,37; 14,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,82; 41,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 6,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,58; 12,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,53; 32,43</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>279,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,78%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,5; 5,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 35,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,1; 77,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,25; 123,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,79; 197,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>182,1; 548,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,61; 45,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,23; 86,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>101,59; 198,86</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,28; -2,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,32; 4,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,78; 25,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,95; 2,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,09; 8,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,63; 20,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,01; -3,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,21; 4,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,24; 20,77</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,77%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,21; -6,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,63; 12,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,65; 70,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,64; 14,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,96; 48,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,97; 117,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,36; -10,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,98; 16,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,22; 78,7</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,86; -7,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,44; -4,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 5,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 6,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,01; 8,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,09; 25,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 1,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,95; 16,9</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,83%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,96%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,74; -13,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,44; -8,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 11,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,87; 29,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,77; 34,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,39; 106,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,9; 5,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 11,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,3; 47,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P62-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P62-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,09</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,74</t>
+          <t>11,26</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 5,21</t>
+          <t>-6,1; 4,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,23; 22,05</t>
+          <t>13,83; 21,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 14,96</t>
+          <t>7,98; 14,49</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>45,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 6,85</t>
+          <t>-7,47; 5,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,76; 60,55</t>
+          <t>33,91; 59,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,49; 28,99</t>
+          <t>14,36; 28,03</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,0</t>
+          <t>13,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,98</t>
+          <t>29,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>23,92</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 21,39</t>
+          <t>7,99; 18,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,82; 41,42</t>
+          <t>16,8; 54,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 32,43</t>
+          <t>16,86; 40,36</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,34%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>279,12%</t>
+          <t>342,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>133,78%</t>
+          <t>146,62%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,1; 77,33</t>
+          <t>23,54; 67,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>182,1; 548,01</t>
+          <t>185,72; 749,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>101,59; 198,86</t>
+          <t>99,91; 262,74</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,28</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>11,87</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,14</t>
+          <t>13,57</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 25,29</t>
+          <t>1,66; 24,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 20,43</t>
+          <t>3,61; 20,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,24; 20,77</t>
+          <t>6,77; 20,17</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,88%</t>
+          <t>53,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>45,77%</t>
+          <t>43,91%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,65; 70,84</t>
+          <t>3,52; 68,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 117,2</t>
+          <t>11,96; 114,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,22; 78,7</t>
+          <t>19,12; 76,33</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>18,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,38</t>
+          <t>12,06</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 5,85</t>
+          <t>-4,45; 3,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,09; 25,08</t>
+          <t>11,88; 33,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 16,9</t>
+          <t>8,38; 23,02</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>65,18%</t>
+          <t>75,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>33,87%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 11,08</t>
+          <t>-7,94; 7,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,39; 106,85</t>
+          <t>47,06; 140,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24,3; 47,16</t>
+          <t>23,13; 63,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P62-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P62-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,65; -3,98</t>
+          <t>-13,79; -4,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,55; -1,0</t>
+          <t>-10,88; -1,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 4,34</t>
+          <t>-5,34; 4,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 10,58</t>
+          <t>2,76; 10,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 12,77</t>
+          <t>4,05; 12,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,83; 21,63</t>
+          <t>13,51; 21,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,02</t>
+          <t>-0,95; 5,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,54</t>
+          <t>0,76; 7,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 14,49</t>
+          <t>7,95; 14,61</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,78; -5,08</t>
+          <t>-17,02; -5,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,16; -1,4</t>
+          <t>-13,65; -2,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 5,64</t>
+          <t>-6,58; 5,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 28,56</t>
+          <t>6,91; 30,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,39; 34,78</t>
+          <t>9,89; 35,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,91; 59,57</t>
+          <t>33,06; 59,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 9,82</t>
+          <t>-1,75; 9,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 14,68</t>
+          <t>1,32; 14,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,36; 28,03</t>
+          <t>14,43; 28,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 1,42</t>
+          <t>-8,64; 1,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 9,1</t>
+          <t>-0,42; 9,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 18,57</t>
+          <t>7,61; 19,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,13</t>
+          <t>3,53; 8,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 14,28</t>
+          <t>8,28; 14,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 54,28</t>
+          <t>16,82; 52,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,72</t>
+          <t>1,51; 6,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 12,9</t>
+          <t>7,73; 12,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 40,36</t>
+          <t>16,83; 38,71</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,5; 5,39</t>
+          <t>-25,52; 6,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 35,53</t>
+          <t>-1,28; 33,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,54; 67,4</t>
+          <t>23,83; 70,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,25; 123,08</t>
+          <t>35,34; 121,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,79; 197,77</t>
+          <t>81,11; 202,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>185,72; 749,97</t>
+          <t>183,61; 709,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 45,68</t>
+          <t>8,21; 44,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,23; 86,85</t>
+          <t>42,73; 87,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>99,91; 262,74</t>
+          <t>98,62; 267,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,28; -2,51</t>
+          <t>-24,29; -2,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 4,09</t>
+          <t>-16,89; 5,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,66; 24,55</t>
+          <t>3,1; 26,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 2,52</t>
+          <t>-13,96; 1,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 8,47</t>
+          <t>-9,34; 8,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 20,07</t>
+          <t>3,84; 20,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,01; -3,04</t>
+          <t>-15,94; -1,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 4,53</t>
+          <t>-9,55; 4,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,77; 20,17</t>
+          <t>6,32; 20,38</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,21; -6,27</t>
+          <t>-53,02; -7,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-36,63; 12,21</t>
+          <t>-35,97; 15,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 68,93</t>
+          <t>6,12; 76,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 14,15</t>
+          <t>-54,08; 10,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,96; 48,74</t>
+          <t>-35,69; 44,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,96; 114,85</t>
+          <t>14,21; 117,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,36; -10,09</t>
+          <t>-47,1; -6,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 16,89</t>
+          <t>-28,69; 15,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,12; 76,33</t>
+          <t>17,23; 75,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,86; -7,13</t>
+          <t>-13,89; -6,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,44; -4,52</t>
+          <t>-11,56; -4,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 3,75</t>
+          <t>-4,62; 3,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,92</t>
+          <t>2,02; 6,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,06</t>
+          <t>2,86; 8,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,88; 33,16</t>
+          <t>12,2; 33,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 1,9</t>
+          <t>-2,17; 2,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,89</t>
+          <t>-0,41; 3,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,38; 23,02</t>
+          <t>8,34; 20,38</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,74; -13,61</t>
+          <t>-24,79; -13,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,44; -8,66</t>
+          <t>-20,45; -8,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 7,0</t>
+          <t>-8,33; 6,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,87; 29,63</t>
+          <t>7,49; 29,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,77; 34,27</t>
+          <t>11,14; 35,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,06; 140,58</t>
+          <t>48,63; 138,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 5,48</t>
+          <t>-5,91; 6,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 11,18</t>
+          <t>-1,09; 11,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,13; 63,27</t>
+          <t>23,07; 58,61</t>
         </is>
       </c>
     </row>
